--- a/test3.xlsx
+++ b/test3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\58298\Documents\GitHub\texaspoker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AFE12A-5226-4A97-9EFB-6D8853EF7F96}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E3F907-8D0A-4359-AC31-0D3E48ECED2F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6375,6 +6375,20 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>sheet!$B$3:$AMF$3</c:f>
@@ -9474,6 +9488,20 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>sheet!$B$4:$AMF$4</c:f>
